--- a/ihj.xlsx
+++ b/ihj.xlsx
@@ -552,8 +552,10 @@
       </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
-        <v>2021</v>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O2" t="n">
         <v>157</v>
@@ -610,8 +612,10 @@
           <t>Услуги местной телефонной связи</t>
         </is>
       </c>
-      <c r="N3" t="n">
-        <v>2020</v>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="O3" t="n">
         <v>1</v>
@@ -666,8 +670,10 @@
           <t>Оказание услуг специальной связи по доставке отправлений</t>
         </is>
       </c>
-      <c r="N4" t="n">
-        <v>2020</v>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="O4" t="n">
         <v>23</v>
@@ -722,8 +728,10 @@
           <t>Услуги местной и междугородней связи (в рамках ИКТ)</t>
         </is>
       </c>
-      <c r="N5" t="n">
-        <v>2021</v>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O5" t="n">
         <v>29</v>
@@ -778,8 +786,10 @@
           <t>Услуги конфиденциальной сотовой связи</t>
         </is>
       </c>
-      <c r="N6" t="n">
-        <v>2020</v>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="O6" t="n">
         <v>11</v>
@@ -834,8 +844,10 @@
           <t>Техническое обслуживание системы резервного энергоснабжения военного городка</t>
         </is>
       </c>
-      <c r="N7" t="n">
-        <v>2021</v>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O7" t="n">
         <v>1</v>
@@ -896,8 +908,10 @@
           <t>Техническое обслуживание пожарной автоматики</t>
         </is>
       </c>
-      <c r="N8" t="n">
-        <v>2021</v>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O8" t="n">
         <v>7</v>
@@ -952,8 +966,10 @@
           <t>Услуги фельдъегерской связи</t>
         </is>
       </c>
-      <c r="N9" t="n">
-        <v>2021</v>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O9" t="n">
         <v>8</v>
@@ -1010,8 +1026,10 @@
           <t>Услуги дезинсекции и дератизации</t>
         </is>
       </c>
-      <c r="N10" t="n">
-        <v>2021</v>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O10" t="n">
         <v>9</v>
@@ -1068,8 +1086,10 @@
           <t>Услуги по стирке белья</t>
         </is>
       </c>
-      <c r="N11" t="n">
-        <v>2021</v>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O11" t="n">
         <v>10</v>
@@ -1126,8 +1146,10 @@
           <t>Услуги по обращению с твердыми коммунальными отходам</t>
         </is>
       </c>
-      <c r="N12" t="n">
-        <v>2021</v>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O12" t="n">
         <v>2</v>
@@ -1184,8 +1206,10 @@
           <t>Услуги по обучению сотрудников работе на стерилизаторах медицинских паровых (автоклавах)</t>
         </is>
       </c>
-      <c r="N13" t="n">
-        <v>2021</v>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O13" t="n">
         <v>19</v>
@@ -1246,8 +1270,10 @@
           <t>Услуги по поверке изделий медицинской техники</t>
         </is>
       </c>
-      <c r="N14" t="n">
-        <v>2021</v>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O14" t="n">
         <v>24</v>
@@ -1304,8 +1330,10 @@
           <t>Услуги по техническому обслуживанию изделий медицинской техники</t>
         </is>
       </c>
-      <c r="N15" t="n">
-        <v>2021</v>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O15" t="n">
         <v>16</v>
@@ -1362,8 +1390,10 @@
           <t>Услуги по проведению лабораторных исследований и инструментальных измерений для осуществления производственного контроля за работой медицинского пункта</t>
         </is>
       </c>
-      <c r="N16" t="n">
-        <v>2021</v>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O16" t="n">
         <v>13</v>
@@ -1420,8 +1450,10 @@
           <t>Услуги по обновлению программного комплекса РИК версии "ПРОФ" с электронной сметно-нормативной базой</t>
         </is>
       </c>
-      <c r="N17" t="n">
-        <v>2021</v>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O17" t="n">
         <v>18</v>
@@ -1478,8 +1510,10 @@
           <t>поставка хлебобулочных изделий</t>
         </is>
       </c>
-      <c r="N18" t="n">
-        <v>2021</v>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O18" t="n">
         <v>22</v>
@@ -1536,8 +1570,10 @@
           <t>Обновление справочно-правовой системы "ГАРАНТ"</t>
         </is>
       </c>
-      <c r="N19" t="n">
-        <v>2021</v>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O19" t="n">
         <v>23</v>
@@ -1594,8 +1630,10 @@
           <t>Оказание услуг местной телефонной связи</t>
         </is>
       </c>
-      <c r="N20" t="n">
-        <v>2021</v>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O20" t="n">
         <v>3</v>
@@ -1650,8 +1688,10 @@
           <t>Услуги электроснабжения</t>
         </is>
       </c>
-      <c r="N21" t="n">
-        <v>2021</v>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O21" t="n">
         <v>4</v>
@@ -1706,8 +1746,10 @@
           <t>Аренда жилого помещения</t>
         </is>
       </c>
-      <c r="N22" t="n">
-        <v>2021</v>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O22" t="n">
         <v>5</v>
@@ -1762,8 +1804,10 @@
           <t>Услуги по сбору, транспортированию и обезвреживанию отходов</t>
         </is>
       </c>
-      <c r="N23" t="n">
-        <v>2021</v>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O23" t="n">
         <v>6</v>
@@ -1818,8 +1862,10 @@
           <t>Услуги водоотведения</t>
         </is>
       </c>
-      <c r="N24" t="n">
-        <v>2021</v>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O24" t="n">
         <v>12</v>
@@ -1876,8 +1922,10 @@
           <t>Услуги теплоснабжения</t>
         </is>
       </c>
-      <c r="N25" t="n">
-        <v>2021</v>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O25" t="n">
         <v>11</v>
@@ -1932,8 +1980,10 @@
           <t>Услуги специальной связи по доставке отправлений</t>
         </is>
       </c>
-      <c r="N26" t="n">
-        <v>2021</v>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O26" t="n">
         <v>17</v>
@@ -1990,8 +2040,10 @@
           <t>Оказание услуг внутризоновой и междугородней связи (в рамках ИКТ)</t>
         </is>
       </c>
-      <c r="N27" t="n">
-        <v>2021</v>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O27" t="n">
         <v>14</v>
@@ -2048,8 +2100,10 @@
           <t>Оказание услуг фиксированной телефонной связи (в рамках ИКТ)</t>
         </is>
       </c>
-      <c r="N28" t="n">
-        <v>2021</v>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O28" t="n">
         <v>15</v>
@@ -2104,8 +2158,10 @@
           <t>Услуги подвижной радиотелефонной связи (в рамках ИКТ)</t>
         </is>
       </c>
-      <c r="N29" t="n">
-        <v>2021</v>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O29" t="n">
         <v>20</v>
@@ -2162,8 +2218,10 @@
           <t>Оказание услуг специальной конфиденциальной связи (в рамках ИКТ)</t>
         </is>
       </c>
-      <c r="N30" t="n">
-        <v>2021</v>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O30" t="n">
         <v>21</v>
@@ -2224,8 +2282,10 @@
           <t>Ремонт радиотанции Р-168-5УТ-2</t>
         </is>
       </c>
-      <c r="N31" t="n">
-        <v>2021</v>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O31" t="n">
         <v>41</v>
@@ -2286,8 +2346,10 @@
           <t>Ремонт электроагрегата АДП5-Т400</t>
         </is>
       </c>
-      <c r="N32" t="n">
-        <v>2021</v>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O32" t="n">
         <v>42</v>
@@ -2348,8 +2410,10 @@
           <t>Ремонт блока абонентского кроса (БАК)</t>
         </is>
       </c>
-      <c r="N33" t="n">
-        <v>2021</v>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O33" t="n">
         <v>40</v>
@@ -2410,8 +2474,10 @@
           <t>Средства дезинфекционные</t>
         </is>
       </c>
-      <c r="N34" t="n">
-        <v>2021</v>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O34" t="n">
         <v>43</v>
@@ -2472,8 +2538,10 @@
           <t>Контейнеры для сбора острого медицинского инструмента</t>
         </is>
       </c>
-      <c r="N35" t="n">
-        <v>2021</v>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O35" t="n">
         <v>46</v>
@@ -2534,8 +2602,10 @@
           <t>Индикаторы</t>
         </is>
       </c>
-      <c r="N36" t="n">
-        <v>2021</v>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O36" t="n">
         <v>45</v>
@@ -2596,8 +2666,10 @@
           <t>Услуги по проведению лабораторных исследований и инструментальных измерений для осущестления производственного контроля за работой медицинского пункта</t>
         </is>
       </c>
-      <c r="N37" t="n">
-        <v>2021</v>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O37" t="n">
         <v>39</v>
@@ -2658,8 +2730,10 @@
           <t>Репелленты</t>
         </is>
       </c>
-      <c r="N38" t="n">
-        <v>2021</v>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O38" t="n">
         <v>38</v>
@@ -2720,8 +2794,10 @@
           <t>Образовательные услуги по программе дополнительного образования "Обеспечение экологической бзопасности руководителями и специалистами общехозяйственных систем управления"</t>
         </is>
       </c>
-      <c r="N39" t="n">
-        <v>2021</v>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O39" t="n">
         <v>50</v>
@@ -2782,8 +2858,10 @@
           <t>Жесткие диски (в рамках ИКТ)</t>
         </is>
       </c>
-      <c r="N40" t="n">
-        <v>2021</v>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O40" t="n">
         <v>48</v>
@@ -2840,8 +2918,10 @@
           <t>Поставка овощей свежих (в целях ГОЗ)</t>
         </is>
       </c>
-      <c r="N41" t="n">
-        <v>2021</v>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O41" t="n">
         <v>35</v>
@@ -2902,8 +2982,10 @@
           <t>Шприцы</t>
         </is>
       </c>
-      <c r="N42" t="n">
-        <v>2021</v>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O42" t="n">
         <v>51</v>
@@ -2964,8 +3046,10 @@
           <t>Материалы перевязочные</t>
         </is>
       </c>
-      <c r="N43" t="n">
-        <v>2021</v>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O43" t="n">
         <v>47</v>
@@ -3026,8 +3110,10 @@
           <t>Устройства для переливания инфузионных растворов и кровезаменителей однократного применения</t>
         </is>
       </c>
-      <c r="N44" t="n">
-        <v>2021</v>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O44" t="n">
         <v>44</v>
@@ -3088,8 +3174,10 @@
           <t>Лейкопластыри</t>
         </is>
       </c>
-      <c r="N45" t="n">
-        <v>2021</v>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O45" t="n">
         <v>52</v>
@@ -3150,8 +3238,10 @@
           <t>Оптические приводы (в рамках ИКТ)</t>
         </is>
       </c>
-      <c r="N46" t="n">
-        <v>2021</v>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O46" t="n">
         <v>49</v>
@@ -3212,8 +3302,10 @@
           <t>Турникет электромеханический полноростовой</t>
         </is>
       </c>
-      <c r="N47" t="n">
-        <v>2021</v>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O47" t="n">
         <v>54</v>
@@ -3274,8 +3366,10 @@
           <t>Заправка и восстановление картриджей для оргтехники</t>
         </is>
       </c>
-      <c r="N48" t="n">
-        <v>2021</v>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O48" t="n">
         <v>56</v>
@@ -3336,8 +3430,10 @@
           <t>Ноутбук</t>
         </is>
       </c>
-      <c r="N49" t="n">
-        <v>2021</v>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O49" t="n">
         <v>55</v>
@@ -3398,8 +3494,10 @@
           <t>Перезарядка и обслуживание огнетушителей</t>
         </is>
       </c>
-      <c r="N50" t="n">
-        <v>2021</v>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O50" t="n">
         <v>61</v>
@@ -3460,8 +3558,10 @@
           <t>Дефектация блока SDSL</t>
         </is>
       </c>
-      <c r="N51" t="n">
-        <v>2021</v>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O51" t="n">
         <v>53</v>
@@ -3522,8 +3622,10 @@
           <t>Стоматологические материалы</t>
         </is>
       </c>
-      <c r="N52" t="n">
-        <v>2021</v>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O52" t="n">
         <v>57</v>
@@ -3584,8 +3686,10 @@
           <t>Боры стоматологические</t>
         </is>
       </c>
-      <c r="N53" t="n">
-        <v>2021</v>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O53" t="n">
         <v>63</v>
@@ -3646,8 +3750,10 @@
           <t>Услуги по поверке средств измерений</t>
         </is>
       </c>
-      <c r="N54" t="n">
-        <v>2021</v>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O54" t="n">
         <v>60</v>
@@ -3708,8 +3814,10 @@
           <t>Услуги по переподготовке "Сварщик дуговой сварки неплавящимся электродом в защитном газе"</t>
         </is>
       </c>
-      <c r="N55" t="n">
-        <v>2021</v>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O55" t="n">
         <v>59</v>
@@ -3770,8 +3878,10 @@
           <t>Стоматологическое расходное имущество</t>
         </is>
       </c>
-      <c r="N56" t="n">
-        <v>2021</v>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O56" t="n">
         <v>58</v>
@@ -3832,8 +3942,10 @@
           <t>Валики стоматологические</t>
         </is>
       </c>
-      <c r="N57" t="n">
-        <v>2021</v>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O57" t="n">
         <v>66</v>
@@ -3890,8 +4002,10 @@
           <t>Услуги по проведению ремонта блока служебной связи Л802 и блока БП-Л800МД (в рамках государственного оборонного заказа в целях обеспечения государственной программы вооружения)</t>
         </is>
       </c>
-      <c r="N58" t="n">
-        <v>2021</v>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O58" t="n">
         <v>36</v>
@@ -3948,8 +4062,10 @@
           <t>Услуги по повышению квалификации сотрудника на цикле "Управление и экономика фармации"</t>
         </is>
       </c>
-      <c r="N59" t="n">
-        <v>2021</v>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O59" t="n">
         <v>37</v>
@@ -4010,8 +4126,10 @@
           <t>Испытание средств защиты</t>
         </is>
       </c>
-      <c r="N60" t="n">
-        <v>2021</v>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O60" t="n">
         <v>76</v>
@@ -4072,8 +4190,10 @@
           <t>Манипулятор (компьютернаямышь) в рамках ИКТ</t>
         </is>
       </c>
-      <c r="N61" t="n">
-        <v>2021</v>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O61" t="n">
         <v>77</v>
@@ -4134,8 +4254,10 @@
           <t>Контейнеры для сбора проб мочи стерильные ИВД</t>
         </is>
       </c>
-      <c r="N62" t="n">
-        <v>2021</v>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O62" t="n">
         <v>68</v>
@@ -4196,8 +4318,10 @@
           <t>Анестетики для медицинского применения</t>
         </is>
       </c>
-      <c r="N63" t="n">
-        <v>2021</v>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O63" t="n">
         <v>70</v>
@@ -4258,8 +4382,10 @@
           <t>Средства репеллентные</t>
         </is>
       </c>
-      <c r="N64" t="n">
-        <v>2021</v>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O64" t="n">
         <v>69</v>
@@ -4320,8 +4446,10 @@
           <t>Техническое обслуживание системы электроснабжения</t>
         </is>
       </c>
-      <c r="N65" t="n">
-        <v>2021</v>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O65" t="n">
         <v>79</v>
@@ -4382,8 +4510,10 @@
           <t>Техническое обслуживание системы водоснабжения</t>
         </is>
       </c>
-      <c r="N66" t="n">
-        <v>2021</v>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O66" t="n">
         <v>73</v>
@@ -4440,8 +4570,10 @@
           <t>Платные образовательные услуги по программе повышения квалификации "Ценообразование в строительстве и сметное нормирование с применением программного комплекса РИК"</t>
         </is>
       </c>
-      <c r="N67" t="n">
-        <v>2021</v>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O67" t="n">
         <v>90</v>
@@ -4498,8 +4630,10 @@
           <t>Улсуги по обучению пожарно-техническому минимуму</t>
         </is>
       </c>
-      <c r="N68" t="n">
-        <v>2021</v>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O68" t="n">
         <v>62</v>
@@ -4554,8 +4688,10 @@
           <t>Услуги по программе "Подготовка водителей к управлениютранспортными средствами категории C, оборудованными устройствами для подачи специальных световых и звуковых сигналов"</t>
         </is>
       </c>
-      <c r="N69" t="n">
-        <v>2021</v>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O69" t="n">
         <v>64</v>
@@ -4612,8 +4748,10 @@
           <t>Коммутатор (в рамках ИКТ)</t>
         </is>
       </c>
-      <c r="N70" t="n">
-        <v>2021</v>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O70" t="n">
         <v>84</v>
@@ -4670,8 +4808,10 @@
           <t>Дефектация блока СВЧ2М (в рамках выполнени ГОЗ)</t>
         </is>
       </c>
-      <c r="N71" t="n">
-        <v>2021</v>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O71" t="n">
         <v>87</v>
@@ -4728,8 +4868,10 @@
           <t>Запасные части к автомобильной технике (в рамках выполнения ГОЗ)</t>
         </is>
       </c>
-      <c r="N72" t="n">
-        <v>2021</v>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O72" t="n">
         <v>86</v>
@@ -4786,8 +4928,10 @@
           <t>Капитальный ремонт здания казармы № 1 с перепланировкой внутренних помещений</t>
         </is>
       </c>
-      <c r="N73" t="n">
-        <v>2021</v>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O73" t="n">
         <v>83</v>
@@ -4844,8 +4988,10 @@
           <t>Моторное масло М8г2к (в рамках выполнения ГОЗ)</t>
         </is>
       </c>
-      <c r="N74" t="n">
-        <v>2021</v>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O74" t="n">
         <v>88</v>
@@ -4906,8 +5052,10 @@
           <t>Охлаждающая жидкость Тосол А-40 в рамках ГОЗ</t>
         </is>
       </c>
-      <c r="N75" t="n">
-        <v>2021</v>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O75" t="n">
         <v>81</v>
@@ -4964,8 +5112,10 @@
           <t>Моторное масло 5w40 (в целях выполнения ГОЗ)</t>
         </is>
       </c>
-      <c r="N76" t="n">
-        <v>2021</v>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O76" t="n">
         <v>91</v>
@@ -5022,8 +5172,10 @@
           <t>Препятствие противоторанное</t>
         </is>
       </c>
-      <c r="N77" t="n">
-        <v>2021</v>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O77" t="n">
         <v>92</v>
@@ -5080,8 +5232,10 @@
           <t>Горох шлифованный (в целях выполнения государственного оборонного заказа)</t>
         </is>
       </c>
-      <c r="N78" t="n">
-        <v>2021</v>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O78" t="n">
         <v>97</v>
@@ -5142,8 +5296,10 @@
           <t>Разработка, оформление паспорта опасного отхода</t>
         </is>
       </c>
-      <c r="N79" t="n">
-        <v>2021</v>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O79" t="n">
         <v>82</v>
@@ -5200,8 +5356,10 @@
           <t>Изделия макаронные (в целях выполнения государственного оборонного заказа)</t>
         </is>
       </c>
-      <c r="N80" t="n">
-        <v>2021</v>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O80" t="n">
         <v>96</v>
@@ -5258,8 +5416,10 @@
           <t>Масло растительное (в целях выполнения государственного оборонного заказа)</t>
         </is>
       </c>
-      <c r="N81" t="n">
-        <v>2021</v>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O81" t="n">
         <v>94</v>
@@ -5316,8 +5476,10 @@
           <t>Газосварочное оборудование</t>
         </is>
       </c>
-      <c r="N82" t="n">
-        <v>2021</v>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O82" t="n">
         <v>95</v>
@@ -5374,8 +5536,10 @@
           <t>Поставка риса  (в целях выполнения ГОЗ)</t>
         </is>
       </c>
-      <c r="N83" t="n">
-        <v>2021</v>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O83" t="n">
         <v>107</v>
@@ -5432,8 +5596,10 @@
           <t>Техническое обслуживание систем кондиционирования воздуха</t>
         </is>
       </c>
-      <c r="N84" t="n">
-        <v>2021</v>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O84" t="n">
         <v>105</v>
@@ -5490,8 +5656,10 @@
           <t>Техническое обслуживание подвальных помещений зданий военного городка</t>
         </is>
       </c>
-      <c r="N85" t="n">
-        <v>2021</v>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O85" t="n">
         <v>99</v>
@@ -5546,8 +5714,10 @@
           <t>Лекарственные препараты</t>
         </is>
       </c>
-      <c r="N86" t="n">
-        <v>2021</v>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O86" t="n">
         <v>65</v>
@@ -5604,8 +5774,10 @@
           <t>Услуги по обслуживанию и обновлению программных продуктов "1С: Предприятие" (в рамках ИКТ)</t>
         </is>
       </c>
-      <c r="N87" t="n">
-        <v>2021</v>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O87" t="n">
         <v>71</v>
@@ -5662,8 +5834,10 @@
           <t>Чистящее средство</t>
         </is>
       </c>
-      <c r="N88" t="n">
-        <v>2021</v>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O88" t="n">
         <v>103</v>
@@ -5720,8 +5894,10 @@
           <t>Круги отрезные</t>
         </is>
       </c>
-      <c r="N89" t="n">
-        <v>2021</v>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O89" t="n">
         <v>106</v>
@@ -5778,8 +5954,10 @@
           <t>Инструмент плотницкий ручной</t>
         </is>
       </c>
-      <c r="N90" t="n">
-        <v>2021</v>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O90" t="n">
         <v>98</v>
@@ -5836,8 +6014,10 @@
           <t>Насосы циркуляционные</t>
         </is>
       </c>
-      <c r="N91" t="n">
-        <v>2021</v>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O91" t="n">
         <v>108</v>
@@ -5894,8 +6074,10 @@
           <t>Моющие средства</t>
         </is>
       </c>
-      <c r="N92" t="n">
-        <v>2021</v>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O92" t="n">
         <v>102</v>
@@ -5952,8 +6134,10 @@
           <t>Поставка овощей свежих</t>
         </is>
       </c>
-      <c r="N93" t="n">
-        <v>2021</v>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O93" t="n">
         <v>67</v>
@@ -6010,8 +6194,10 @@
           <t>Изделия электроустановочные</t>
         </is>
       </c>
-      <c r="N94" t="n">
-        <v>2021</v>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O94" t="n">
         <v>109</v>
@@ -6068,8 +6254,10 @@
           <t>Панели светодиодные</t>
         </is>
       </c>
-      <c r="N95" t="n">
-        <v>2021</v>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O95" t="n">
         <v>110</v>
@@ -6126,8 +6314,10 @@
           <t>Электроды для электродуговой сварки</t>
         </is>
       </c>
-      <c r="N96" t="n">
-        <v>2021</v>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O96" t="n">
         <v>104</v>
@@ -6184,8 +6374,10 @@
           <t>Овощи свежие в рамках ГОЗ</t>
         </is>
       </c>
-      <c r="N97" t="n">
-        <v>2021</v>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O97" t="n">
         <v>72</v>
@@ -6242,8 +6434,10 @@
           <t>Картофель свежий в рамках ГОЗ</t>
         </is>
       </c>
-      <c r="N98" t="n">
-        <v>2021</v>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O98" t="n">
         <v>78</v>
@@ -6298,8 +6492,10 @@
           <t>Умифеновир для медицинского применения</t>
         </is>
       </c>
-      <c r="N99" t="n">
-        <v>2021</v>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O99" t="n">
         <v>75</v>
@@ -6356,8 +6552,10 @@
           <t>Расширение-модернизация существующей системы пожарной автоматики здания</t>
         </is>
       </c>
-      <c r="N100" t="n">
-        <v>2021</v>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O100" t="n">
         <v>112</v>
@@ -6414,8 +6612,10 @@
           <t>Поверка приборов учета коммунальных услуг</t>
         </is>
       </c>
-      <c r="N101" t="n">
-        <v>2021</v>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O101" t="n">
         <v>111</v>
@@ -6472,8 +6672,10 @@
           <t>Резиновые пласты формовые</t>
         </is>
       </c>
-      <c r="N102" t="n">
-        <v>2021</v>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O102" t="n">
         <v>113</v>
@@ -6534,8 +6736,10 @@
           <t>Кабель силовой</t>
         </is>
       </c>
-      <c r="N103" t="n">
-        <v>2021</v>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O103" t="n">
         <v>119</v>
@@ -6596,8 +6800,10 @@
           <t>Стремянки стальные</t>
         </is>
       </c>
-      <c r="N104" t="n">
-        <v>2021</v>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O104" t="n">
         <v>117</v>
@@ -6658,8 +6864,10 @@
           <t>Кондиционеры бытовые</t>
         </is>
       </c>
-      <c r="N105" t="n">
-        <v>2021</v>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O105" t="n">
         <v>120</v>
@@ -6720,8 +6928,10 @@
           <t>Грубый ровнитель пола</t>
         </is>
       </c>
-      <c r="N106" t="n">
-        <v>2021</v>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O106" t="n">
         <v>121</v>
@@ -6782,8 +6992,10 @@
           <t>Кран шаровой</t>
         </is>
       </c>
-      <c r="N107" t="n">
-        <v>2021</v>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O107" t="n">
         <v>122</v>
@@ -6844,8 +7056,10 @@
           <t>Специи</t>
         </is>
       </c>
-      <c r="N108" t="n">
-        <v>2021</v>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O108" t="n">
         <v>130</v>
@@ -6906,8 +7120,10 @@
           <t>Консервы овощные</t>
         </is>
       </c>
-      <c r="N109" t="n">
-        <v>2021</v>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O109" t="n">
         <v>129</v>
@@ -6968,8 +7184,10 @@
           <t>Молоко сгущеное</t>
         </is>
       </c>
-      <c r="N110" t="n">
-        <v>2021</v>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O110" t="n">
         <v>131</v>
@@ -7026,8 +7244,10 @@
           <t>Мыло туалетное</t>
         </is>
       </c>
-      <c r="N111" t="n">
-        <v>2021</v>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O111" t="n">
         <v>85</v>
@@ -7088,8 +7308,10 @@
           <t>Пена монтажная</t>
         </is>
       </c>
-      <c r="N112" t="n">
-        <v>2021</v>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O112" t="n">
         <v>116</v>
@@ -7150,8 +7372,10 @@
           <t>Испытание электроустановок, устройств заземления</t>
         </is>
       </c>
-      <c r="N113" t="n">
-        <v>2021</v>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O113" t="n">
         <v>124</v>
@@ -7206,8 +7430,10 @@
           <t>Панели 3D забора</t>
         </is>
       </c>
-      <c r="N114" t="n">
-        <v>2021</v>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O114" t="n">
         <v>89</v>
@@ -7268,8 +7494,10 @@
           <t>Моторное масло М-10ДМ</t>
         </is>
       </c>
-      <c r="N115" t="n">
-        <v>2021</v>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O115" t="n">
         <v>128</v>
@@ -7330,8 +7558,10 @@
           <t>Автомобильный бензин АИ-95</t>
         </is>
       </c>
-      <c r="N116" t="n">
-        <v>2021</v>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O116" t="n">
         <v>125</v>
@@ -7392,8 +7622,10 @@
           <t>Цемент</t>
         </is>
       </c>
-      <c r="N117" t="n">
-        <v>2021</v>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O117" t="n">
         <v>132</v>
@@ -7454,8 +7686,10 @@
           <t>Окзание улсуг по дополнительной профессиональной программе повышения квалификации "Контрактная система в сферезакупок для государственных и муниципальных нужд"</t>
         </is>
       </c>
-      <c r="N118" t="n">
-        <v>2021</v>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O118" t="n">
         <v>133</v>
@@ -7516,8 +7750,10 @@
           <t>Столешница</t>
         </is>
       </c>
-      <c r="N119" t="n">
-        <v>2021</v>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O119" t="n">
         <v>127</v>
@@ -7578,8 +7814,10 @@
           <t>Бумага для офисной техники белая</t>
         </is>
       </c>
-      <c r="N120" t="n">
-        <v>2021</v>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O120" t="n">
         <v>149</v>
@@ -7640,8 +7878,10 @@
           <t>Разработка, оформление паспортов опасных отходов</t>
         </is>
       </c>
-      <c r="N121" t="n">
-        <v>2021</v>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O121" t="n">
         <v>135</v>
@@ -7702,8 +7942,10 @@
           <t>Материалы лакокрасочные</t>
         </is>
       </c>
-      <c r="N122" t="n">
-        <v>2021</v>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O122" t="n">
         <v>134</v>
@@ -7764,8 +8006,10 @@
           <t>Фотокамера цифровая зеркальная с объективом</t>
         </is>
       </c>
-      <c r="N123" t="n">
-        <v>2021</v>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O123" t="n">
         <v>143</v>
@@ -7820,8 +8064,10 @@
           <t>Кровельные материалы</t>
         </is>
       </c>
-      <c r="N124" t="n">
-        <v>2021</v>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O124" t="n">
         <v>100</v>
@@ -7882,8 +8128,10 @@
           <t>Поставка запасных частей к автомобильной технике</t>
         </is>
       </c>
-      <c r="N125" t="n">
-        <v>2021</v>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O125" t="n">
         <v>150</v>
@@ -7938,8 +8186,10 @@
           <t>Глицеритан для медицинского применения</t>
         </is>
       </c>
-      <c r="N126" t="n">
-        <v>2021</v>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O126" t="n">
         <v>101</v>
@@ -8000,8 +8250,10 @@
           <t>Утилизация отработанных масел и охлаждающих жидкостей на основе этиленгликоля</t>
         </is>
       </c>
-      <c r="N127" t="n">
-        <v>2021</v>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O127" t="n">
         <v>142</v>
@@ -8062,8 +8314,10 @@
           <t>Опоры для стола</t>
         </is>
       </c>
-      <c r="N128" t="n">
-        <v>2021</v>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O128" t="n">
         <v>146</v>
@@ -8124,8 +8378,10 @@
           <t>Экспертиза промышленной безопасности автомобильного крана</t>
         </is>
       </c>
-      <c r="N129" t="n">
-        <v>2021</v>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O129" t="n">
         <v>139</v>
@@ -8186,8 +8442,10 @@
           <t>Техническое обслуживание автомобилей КАМАЗ</t>
         </is>
       </c>
-      <c r="N130" t="n">
-        <v>2021</v>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O130" t="n">
         <v>151</v>
@@ -8248,8 +8506,10 @@
           <t>Утилизация автомобильных шин</t>
         </is>
       </c>
-      <c r="N131" t="n">
-        <v>2021</v>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O131" t="n">
         <v>141</v>
@@ -8310,8 +8570,10 @@
           <t>Овощи свежие</t>
         </is>
       </c>
-      <c r="N132" t="n">
-        <v>2021</v>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O132" t="n">
         <v>136</v>
@@ -8372,8 +8634,10 @@
           <t>Реле KIPPRIBOR RS-307 AL</t>
         </is>
       </c>
-      <c r="N133" t="n">
-        <v>2021</v>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O133" t="n">
         <v>147</v>
@@ -8428,8 +8692,10 @@
           <t>Аренда жилого помещения</t>
         </is>
       </c>
-      <c r="N134" t="n">
-        <v>2021</v>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O134" t="n">
         <v>114</v>
@@ -8490,8 +8756,10 @@
           <t>Валик малярный</t>
         </is>
       </c>
-      <c r="N135" t="n">
-        <v>2021</v>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O135" t="n">
         <v>148</v>
@@ -8552,8 +8820,10 @@
           <t>Краны для раковин, моек, ванн и аналогичная арматура</t>
         </is>
       </c>
-      <c r="N136" t="n">
-        <v>2021</v>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O136" t="n">
         <v>145</v>
@@ -8614,8 +8884,10 @@
           <t>Труба профильная стальная</t>
         </is>
       </c>
-      <c r="N137" t="n">
-        <v>2021</v>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O137" t="n">
         <v>144</v>
@@ -8676,8 +8948,10 @@
           <t>Техническое обслуживание наружного освещения</t>
         </is>
       </c>
-      <c r="N138" t="n">
-        <v>2021</v>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O138" t="n">
         <v>140</v>
@@ -8734,8 +9008,10 @@
           <t>Услуги по проведению обязательного психиатрического освидетельствования работников, и выявление противопоказаний к осуществлению отдельных видов работ</t>
         </is>
       </c>
-      <c r="N139" t="n">
-        <v>2021</v>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O139" t="n">
         <v>115</v>
@@ -8792,8 +9068,10 @@
           <t>Услуги по оборащению с твердыми коммунальными отходами</t>
         </is>
       </c>
-      <c r="N140" t="n">
-        <v>2021</v>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O140" t="n">
         <v>138</v>
@@ -8848,8 +9126,10 @@
           <t>Стол для совещания</t>
         </is>
       </c>
-      <c r="N141" t="n">
-        <v>2021</v>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O141" t="n">
         <v>153</v>
@@ -8904,8 +9184,10 @@
           <t>Плитка тратуарная</t>
         </is>
       </c>
-      <c r="N142" t="n">
-        <v>2021</v>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O142" t="n">
         <v>155</v>
@@ -8960,8 +9242,10 @@
           <t>Ориентированно-стружечная плита</t>
         </is>
       </c>
-      <c r="N143" t="n">
-        <v>2021</v>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O143" t="n">
         <v>154</v>
@@ -9016,8 +9300,10 @@
           <t>Услуги специальной связи по приему, обработке, хранению, перевозке, доставке и вручению отправлений</t>
         </is>
       </c>
-      <c r="N144" t="n">
-        <v>2021</v>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O144" t="n">
         <v>137</v>
@@ -9074,8 +9360,10 @@
           <t>Услуги по подключению к системе элеткронного документооборота, с использованием сертифицированных средств криптографической защиты информации (в рамках ИКТ)</t>
         </is>
       </c>
-      <c r="N145" t="n">
-        <v>2021</v>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O145" t="n">
         <v>126</v>
@@ -9130,8 +9418,10 @@
           <t>Утилизация автомобильных шин</t>
         </is>
       </c>
-      <c r="N146" t="n">
-        <v>2021</v>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O146" t="n">
         <v>156</v>
@@ -9188,8 +9478,10 @@
           <t>Лакокрасочные материалы</t>
         </is>
       </c>
-      <c r="N147" t="n">
-        <v>2021</v>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O147" t="n">
         <v>162</v>
@@ -9246,8 +9538,10 @@
           <t>Оказание транспортно-экспедиционных услуг</t>
         </is>
       </c>
-      <c r="N148" t="n">
-        <v>2021</v>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O148" t="n">
         <v>158</v>
@@ -9304,8 +9598,10 @@
           <t>Трос стальной</t>
         </is>
       </c>
-      <c r="N149" t="n">
-        <v>2021</v>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O149" t="n">
         <v>163</v>
@@ -9366,8 +9662,10 @@
           <t>Цемент М400</t>
         </is>
       </c>
-      <c r="N150" t="n">
-        <v>2021</v>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O150" t="n">
         <v>165</v>
@@ -9428,8 +9726,10 @@
           <t>Тротуарная плитка</t>
         </is>
       </c>
-      <c r="N151" t="n">
-        <v>2021</v>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O151" t="n">
         <v>166</v>
@@ -9490,8 +9790,10 @@
           <t>Ванна стальная</t>
         </is>
       </c>
-      <c r="N152" t="n">
-        <v>2021</v>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O152" t="n">
         <v>164</v>
@@ -9552,8 +9854,10 @@
           <t>Силовой кабель</t>
         </is>
       </c>
-      <c r="N153" t="n">
-        <v>2021</v>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O153" t="n">
         <v>169</v>
@@ -9614,8 +9918,10 @@
           <t>Электроды</t>
         </is>
       </c>
-      <c r="N154" t="n">
-        <v>2021</v>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O154" t="n">
         <v>167</v>
@@ -9676,8 +9982,10 @@
           <t>Коммутатор IP-видеонаблюдения</t>
         </is>
       </c>
-      <c r="N155" t="n">
-        <v>2021</v>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O155" t="n">
         <v>168</v>
@@ -9738,8 +10046,10 @@
           <t>Светодиодная панель</t>
         </is>
       </c>
-      <c r="N156" t="n">
-        <v>2021</v>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O156" t="n">
         <v>179</v>
@@ -9800,8 +10110,10 @@
           <t>Экспертиза трубопровода наружных сетей теплоснабжения</t>
         </is>
       </c>
-      <c r="N157" t="n">
-        <v>2021</v>
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O157" t="n">
         <v>178</v>
@@ -9862,8 +10174,10 @@
           <t>Смеси строительные</t>
         </is>
       </c>
-      <c r="N158" t="n">
-        <v>2021</v>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O158" t="n">
         <v>175</v>
@@ -9924,8 +10238,10 @@
           <t>Труба профильная</t>
         </is>
       </c>
-      <c r="N159" t="n">
-        <v>2021</v>
+      <c r="N159" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O159" t="n">
         <v>174</v>
@@ -9986,8 +10302,10 @@
           <t>Источники вторичного питания</t>
         </is>
       </c>
-      <c r="N160" t="n">
-        <v>2021</v>
+      <c r="N160" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O160" t="n">
         <v>176</v>
@@ -10048,8 +10366,10 @@
           <t>Краски</t>
         </is>
       </c>
-      <c r="N161" t="n">
-        <v>2021</v>
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O161" t="n">
         <v>177</v>
@@ -10106,8 +10426,10 @@
           <t>Услуги обязательного страхования гражданской ответственности владельца опасного объекта</t>
         </is>
       </c>
-      <c r="N162" t="n">
-        <v>2021</v>
+      <c r="N162" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O162" t="n">
         <v>173</v>
@@ -10162,8 +10484,10 @@
           <t>Работы по специальной проверке и специальным исследованиям технических средств (в рамках ИКТ)</t>
         </is>
       </c>
-      <c r="N163" t="n">
-        <v>2021</v>
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="O163" t="n">
         <v>33</v>
@@ -10204,8 +10528,10 @@
       </c>
       <c r="L164" t="inlineStr"/>
       <c r="M164" t="inlineStr"/>
-      <c r="N164" t="n">
-        <v>0</v>
+      <c r="N164" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O164" t="n">
         <v>0</v>
@@ -10246,8 +10572,10 @@
       </c>
       <c r="L165" t="inlineStr"/>
       <c r="M165" t="inlineStr"/>
-      <c r="N165" t="n">
-        <v>0</v>
+      <c r="N165" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O165" t="n">
         <v>0</v>

--- a/ihj.xlsx
+++ b/ihj.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/ihj.xlsx
+++ b/ihj.xlsx
@@ -527,7 +527,11 @@
       <c r="D2" t="n">
         <v>130636.35</v>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="F2" s="2" t="n">
         <v>44384</v>
       </c>
@@ -550,8 +554,16 @@
       <c r="K2" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr">
         <is>
           <t>2021</t>
@@ -606,7 +618,11 @@
       <c r="K3" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M3" t="inlineStr">
         <is>
           <t>Услуги местной телефонной связи</t>
@@ -652,8 +668,10 @@
           <t>ФГУП "ГЦСС" 23/20</t>
         </is>
       </c>
-      <c r="H4" t="n">
-        <v>1143</v>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1143</t>
+        </is>
       </c>
       <c r="I4" s="2" t="n">
         <v>44227</v>
@@ -664,7 +682,11 @@
       <c r="K4" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M4" t="inlineStr">
         <is>
           <t>Оказание услуг специальной связи по доставке отправлений</t>
@@ -710,8 +732,10 @@
           <t>ПАО "Ростелеком" 29/21</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>523</v>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>523</t>
+        </is>
       </c>
       <c r="I5" s="2" t="n">
         <v>44227</v>
@@ -722,7 +746,11 @@
       <c r="K5" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M5" t="inlineStr">
         <is>
           <t>Услуги местной и междугородней связи (в рамках ИКТ)</t>
@@ -768,8 +796,10 @@
           <t>ПАО "Мегафон" 11/20</t>
         </is>
       </c>
-      <c r="H6" t="n">
-        <v>15203386</v>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>15203386</t>
+        </is>
       </c>
       <c r="I6" s="2" t="n">
         <v>44227</v>
@@ -780,7 +810,11 @@
       <c r="K6" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M6" t="inlineStr">
         <is>
           <t>Услуги конфиденциальной сотовой связи</t>
@@ -826,8 +860,10 @@
           <t>АО "Машзавод ЭТС" 1/21</t>
         </is>
       </c>
-      <c r="H7" t="n">
-        <v>1</v>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="I7" s="2" t="n">
         <v>44258</v>
@@ -838,7 +874,11 @@
       <c r="K7" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M7" t="inlineStr">
         <is>
           <t>Техническое обслуживание системы резервного энергоснабжения военного городка</t>
@@ -948,8 +988,10 @@
           <t>ОГФС 8/21</t>
         </is>
       </c>
-      <c r="H9" t="n">
-        <v>48</v>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
       </c>
       <c r="I9" s="2" t="n">
         <v>44561</v>
@@ -960,7 +1002,11 @@
       <c r="K9" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M9" t="inlineStr">
         <is>
           <t>Услуги фельдъегерской связи</t>
@@ -1020,7 +1066,11 @@
       <c r="K10" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M10" t="inlineStr">
         <is>
           <t>Услуги дезинсекции и дератизации</t>
@@ -1080,7 +1130,11 @@
       <c r="K11" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M11" t="inlineStr">
         <is>
           <t>Услуги по стирке белья</t>
@@ -1140,7 +1194,11 @@
       <c r="K12" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M12" t="inlineStr">
         <is>
           <t>Услуги по обращению с твердыми коммунальными отходам</t>
@@ -1200,7 +1258,11 @@
       <c r="K13" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M13" t="inlineStr">
         <is>
           <t>Услуги по обучению сотрудников работе на стерилизаторах медицинских паровых (автоклавах)</t>
@@ -1324,7 +1386,11 @@
       <c r="K15" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M15" t="inlineStr">
         <is>
           <t>Услуги по техническому обслуживанию изделий медицинской техники</t>
@@ -1384,7 +1450,11 @@
       <c r="K16" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M16" t="inlineStr">
         <is>
           <t>Услуги по проведению лабораторных исследований и инструментальных измерений для осуществления производственного контроля за работой медицинского пункта</t>
@@ -1444,7 +1514,11 @@
       <c r="K17" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M17" t="inlineStr">
         <is>
           <t>Услуги по обновлению программного комплекса РИК версии "ПРОФ" с электронной сметно-нормативной базой</t>
@@ -1504,7 +1578,11 @@
       <c r="K18" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M18" t="inlineStr">
         <is>
           <t>поставка хлебобулочных изделий</t>
@@ -1564,7 +1642,11 @@
       <c r="K19" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M19" t="inlineStr">
         <is>
           <t>Обновление справочно-правовой системы "ГАРАНТ"</t>
@@ -1624,7 +1706,11 @@
       <c r="K20" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M20" t="inlineStr">
         <is>
           <t>Оказание услуг местной телефонной связи</t>
@@ -1670,8 +1756,10 @@
           <t>АО "Алтайэнергосбыт" 4/21</t>
         </is>
       </c>
-      <c r="H21" t="n">
-        <v>22080090000757</v>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>22080090000757</t>
+        </is>
       </c>
       <c r="I21" s="2" t="n">
         <v>44592</v>
@@ -1682,7 +1770,11 @@
       <c r="K21" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M21" t="inlineStr">
         <is>
           <t>Услуги электроснабжения</t>
@@ -1728,8 +1820,10 @@
           <t>Попова Р.А. 5/21</t>
         </is>
       </c>
-      <c r="H22" t="n">
-        <v>5</v>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="I22" s="2" t="n">
         <v>44377</v>
@@ -1740,7 +1834,11 @@
       <c r="K22" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M22" t="inlineStr">
         <is>
           <t>Аренда жилого помещения</t>
@@ -1786,8 +1884,10 @@
           <t>ООО "Экология" 6/21</t>
         </is>
       </c>
-      <c r="H23" t="n">
-        <v>6</v>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="I23" s="2" t="n">
         <v>44555</v>
@@ -1798,7 +1898,11 @@
       <c r="K23" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M23" t="inlineStr">
         <is>
           <t>Услуги по сбору, транспортированию и обезвреживанию отходов</t>
@@ -1844,8 +1948,10 @@
           <t>ООО "Барнаульский водоканал" 12/21</t>
         </is>
       </c>
-      <c r="H24" t="n">
-        <v>8697</v>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>8697</t>
+        </is>
       </c>
       <c r="I24" s="2" t="n">
         <v>44592</v>
@@ -1856,7 +1962,11 @@
       <c r="K24" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M24" t="inlineStr">
         <is>
           <t>Услуги водоотведения</t>
@@ -1916,7 +2026,11 @@
       <c r="K25" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M25" t="inlineStr">
         <is>
           <t>Услуги теплоснабжения</t>
@@ -1962,8 +2076,10 @@
           <t>ФГУП "ГЦСС"  17/21</t>
         </is>
       </c>
-      <c r="H26" t="n">
-        <v>1145</v>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>1145</t>
+        </is>
       </c>
       <c r="I26" s="2" t="n">
         <v>44561</v>
@@ -1974,7 +2090,11 @@
       <c r="K26" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M26" t="inlineStr">
         <is>
           <t>Услуги специальной связи по доставке отправлений</t>
@@ -2034,7 +2154,11 @@
       <c r="K27" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M27" t="inlineStr">
         <is>
           <t>Оказание услуг внутризоновой и междугородней связи (в рамках ИКТ)</t>
@@ -2094,7 +2218,11 @@
       <c r="K28" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M28" t="inlineStr">
         <is>
           <t>Оказание услуг фиксированной телефонной связи (в рамках ИКТ)</t>
@@ -2140,8 +2268,10 @@
           <t>ПАО "ВымпелКом" 20/21</t>
         </is>
       </c>
-      <c r="H29" t="n">
-        <v>20</v>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
       </c>
       <c r="I29" s="2" t="n">
         <v>44561</v>
@@ -2152,7 +2282,11 @@
       <c r="K29" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M29" t="inlineStr">
         <is>
           <t>Услуги подвижной радиотелефонной связи (в рамках ИКТ)</t>
@@ -2212,7 +2346,11 @@
       <c r="K30" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M30" t="inlineStr">
         <is>
           <t>Оказание услуг специальной конфиденциальной связи (в рамках ИКТ)</t>
@@ -2912,7 +3050,11 @@
       <c r="K41" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M41" t="inlineStr">
         <is>
           <t>Поставка овощей свежих (в целях ГОЗ)</t>
@@ -3996,7 +4138,11 @@
       <c r="K58" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M58" t="inlineStr">
         <is>
           <t>Услуги по проведению ремонта блока служебной связи Л802 и блока БП-Л800МД (в рамках государственного оборонного заказа в целях обеспечения государственной программы вооружения)</t>
@@ -4056,7 +4202,11 @@
       <c r="K59" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M59" t="inlineStr">
         <is>
           <t>Услуги по повышению квалификации сотрудника на цикле "Управление и экономика фармации"</t>
@@ -4564,7 +4714,11 @@
       <c r="K67" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M67" t="inlineStr">
         <is>
           <t>Платные образовательные услуги по программе повышения квалификации "Ценообразование в строительстве и сметное нормирование с применением программного комплекса РИК"</t>
@@ -4624,7 +4778,11 @@
       <c r="K68" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M68" t="inlineStr">
         <is>
           <t>Улсуги по обучению пожарно-техническому минимуму</t>
@@ -4670,8 +4828,10 @@
           <t>ООО "Авангард" 64/21</t>
         </is>
       </c>
-      <c r="H69" t="n">
-        <v>64</v>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
       </c>
       <c r="I69" s="2" t="n">
         <v>44344</v>
@@ -4682,7 +4842,11 @@
       <c r="K69" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M69" t="inlineStr">
         <is>
           <t>Услуги по программе "Подготовка водителей к управлениютранспортными средствами категории C, оборудованными устройствами для подачи специальных световых и звуковых сигналов"</t>
@@ -4742,7 +4906,11 @@
       <c r="K70" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M70" t="inlineStr">
         <is>
           <t>Коммутатор (в рамках ИКТ)</t>
@@ -4802,7 +4970,11 @@
       <c r="K71" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M71" t="inlineStr">
         <is>
           <t>Дефектация блока СВЧ2М (в рамках выполнени ГОЗ)</t>
@@ -4862,7 +5034,11 @@
       <c r="K72" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M72" t="inlineStr">
         <is>
           <t>Запасные части к автомобильной технике (в рамках выполнения ГОЗ)</t>
@@ -4922,7 +5098,11 @@
       <c r="K73" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M73" t="inlineStr">
         <is>
           <t>Капитальный ремонт здания казармы № 1 с перепланировкой внутренних помещений</t>
@@ -4982,7 +5162,11 @@
       <c r="K74" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M74" t="inlineStr">
         <is>
           <t>Моторное масло М8г2к (в рамках выполнения ГОЗ)</t>
@@ -5106,7 +5290,11 @@
       <c r="K76" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M76" t="inlineStr">
         <is>
           <t>Моторное масло 5w40 (в целях выполнения ГОЗ)</t>
@@ -5166,7 +5354,11 @@
       <c r="K77" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M77" t="inlineStr">
         <is>
           <t>Препятствие противоторанное</t>
@@ -5226,7 +5418,11 @@
       <c r="K78" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M78" t="inlineStr">
         <is>
           <t>Горох шлифованный (в целях выполнения государственного оборонного заказа)</t>
@@ -5350,7 +5546,11 @@
       <c r="K80" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M80" t="inlineStr">
         <is>
           <t>Изделия макаронные (в целях выполнения государственного оборонного заказа)</t>
@@ -5410,7 +5610,11 @@
       <c r="K81" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M81" t="inlineStr">
         <is>
           <t>Масло растительное (в целях выполнения государственного оборонного заказа)</t>
@@ -5470,7 +5674,11 @@
       <c r="K82" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M82" t="inlineStr">
         <is>
           <t>Газосварочное оборудование</t>
@@ -5530,7 +5738,11 @@
       <c r="K83" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M83" t="inlineStr">
         <is>
           <t>Поставка риса  (в целях выполнения ГОЗ)</t>
@@ -5590,7 +5802,11 @@
       <c r="K84" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M84" t="inlineStr">
         <is>
           <t>Техническое обслуживание систем кондиционирования воздуха</t>
@@ -5650,7 +5866,11 @@
       <c r="K85" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M85" t="inlineStr">
         <is>
           <t>Техническое обслуживание подвальных помещений зданий военного городка</t>
@@ -5696,8 +5916,10 @@
           <t>ООО "Твоя аптека" 65/21</t>
         </is>
       </c>
-      <c r="H86" t="n">
-        <v>65</v>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
       </c>
       <c r="I86" s="2" t="n">
         <v>44407</v>
@@ -5708,7 +5930,11 @@
       <c r="K86" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M86" t="inlineStr">
         <is>
           <t>Лекарственные препараты</t>
@@ -5768,7 +5994,11 @@
       <c r="K87" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M87" t="inlineStr">
         <is>
           <t>Услуги по обслуживанию и обновлению программных продуктов "1С: Предприятие" (в рамках ИКТ)</t>
@@ -5828,7 +6058,11 @@
       <c r="K88" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M88" t="inlineStr">
         <is>
           <t>Чистящее средство</t>
@@ -5888,7 +6122,11 @@
       <c r="K89" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M89" t="inlineStr">
         <is>
           <t>Круги отрезные</t>
@@ -5948,7 +6186,11 @@
       <c r="K90" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M90" t="inlineStr">
         <is>
           <t>Инструмент плотницкий ручной</t>
@@ -6008,7 +6250,11 @@
       <c r="K91" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M91" t="inlineStr">
         <is>
           <t>Насосы циркуляционные</t>
@@ -6068,7 +6314,11 @@
       <c r="K92" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M92" t="inlineStr">
         <is>
           <t>Моющие средства</t>
@@ -6128,7 +6378,11 @@
       <c r="K93" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M93" t="inlineStr">
         <is>
           <t>Поставка овощей свежих</t>
@@ -6188,7 +6442,11 @@
       <c r="K94" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M94" t="inlineStr">
         <is>
           <t>Изделия электроустановочные</t>
@@ -6248,7 +6506,11 @@
       <c r="K95" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M95" t="inlineStr">
         <is>
           <t>Панели светодиодные</t>
@@ -6308,7 +6570,11 @@
       <c r="K96" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M96" t="inlineStr">
         <is>
           <t>Электроды для электродуговой сварки</t>
@@ -6368,7 +6634,11 @@
       <c r="K97" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M97" t="inlineStr">
         <is>
           <t>Овощи свежие в рамках ГОЗ</t>
@@ -6428,7 +6698,11 @@
       <c r="K98" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M98" t="inlineStr">
         <is>
           <t>Картофель свежий в рамках ГОЗ</t>
@@ -6474,8 +6748,10 @@
           <t>ООО "Твоя аптека" 75/21</t>
         </is>
       </c>
-      <c r="H99" t="n">
-        <v>75</v>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
       </c>
       <c r="I99" s="2" t="n">
         <v>44407</v>
@@ -6486,7 +6762,11 @@
       <c r="K99" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M99" t="inlineStr">
         <is>
           <t>Умифеновир для медицинского применения</t>
@@ -6546,7 +6826,11 @@
       <c r="K100" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M100" t="inlineStr">
         <is>
           <t>Расширение-модернизация существующей системы пожарной автоматики здания</t>
@@ -6606,7 +6890,11 @@
       <c r="K101" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M101" t="inlineStr">
         <is>
           <t>Поверка приборов учета коммунальных услуг</t>
@@ -6666,7 +6954,11 @@
       <c r="K102" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M102" t="inlineStr">
         <is>
           <t>Резиновые пласты формовые</t>
@@ -7238,7 +7530,11 @@
       <c r="K111" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M111" t="inlineStr">
         <is>
           <t>Мыло туалетное</t>
@@ -7412,8 +7708,10 @@
           <t>ООО "Алтаймастер ПК" 89/21</t>
         </is>
       </c>
-      <c r="H114" t="n">
-        <v>89</v>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
       </c>
       <c r="I114" s="2" t="n">
         <v>44354</v>
@@ -7424,7 +7722,11 @@
       <c r="K114" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M114" t="inlineStr">
         <is>
           <t>Панели 3D забора</t>
@@ -8046,8 +8348,10 @@
           <t>ООО "Формула М" 100/21</t>
         </is>
       </c>
-      <c r="H124" t="n">
-        <v>100</v>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
       </c>
       <c r="I124" s="2" t="n">
         <v>44354</v>
@@ -8058,7 +8362,11 @@
       <c r="K124" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M124" t="inlineStr">
         <is>
           <t>Кровельные материалы</t>
@@ -8168,8 +8476,10 @@
           <t>ООО "Твоя аптека" 101/21</t>
         </is>
       </c>
-      <c r="H126" t="n">
-        <v>101</v>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
       </c>
       <c r="I126" s="2" t="n">
         <v>44435</v>
@@ -8180,7 +8490,11 @@
       <c r="K126" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M126" t="inlineStr">
         <is>
           <t>Глицеритан для медицинского применения</t>
@@ -8674,8 +8988,10 @@
           <t>Попова 114/21</t>
         </is>
       </c>
-      <c r="H134" t="n">
-        <v>114</v>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
       </c>
       <c r="I134" s="2" t="n">
         <v>44561</v>
@@ -8686,7 +9002,11 @@
       <c r="K134" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M134" t="inlineStr">
         <is>
           <t>Аренда жилого помещения</t>
@@ -9002,7 +9322,11 @@
       <c r="K139" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M139" t="inlineStr">
         <is>
           <t>Услуги по проведению обязательного психиатрического освидетельствования работников, и выявление противопоказаний к осуществлению отдельных видов работ</t>
@@ -9062,7 +9386,11 @@
       <c r="K140" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M140" t="inlineStr">
         <is>
           <t>Услуги по оборащению с твердыми коммунальными отходами</t>
@@ -9108,8 +9436,10 @@
           <t>ИП Дронов Андрей Викторович 153/21</t>
         </is>
       </c>
-      <c r="H141" t="n">
-        <v>153</v>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
       </c>
       <c r="I141" s="2" t="n">
         <v>44421</v>
@@ -9120,7 +9450,11 @@
       <c r="K141" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M141" t="inlineStr">
         <is>
           <t>Стол для совещания</t>
@@ -9166,8 +9500,10 @@
           <t>ООО "Формула М" 155/21</t>
         </is>
       </c>
-      <c r="H142" t="n">
-        <v>155</v>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
       </c>
       <c r="I142" s="2" t="n">
         <v>44428</v>
@@ -9178,7 +9514,11 @@
       <c r="K142" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M142" t="inlineStr">
         <is>
           <t>Плитка тратуарная</t>
@@ -9224,8 +9564,10 @@
           <t>ООО "Формула М" 154/21</t>
         </is>
       </c>
-      <c r="H143" t="n">
-        <v>154</v>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
       </c>
       <c r="I143" s="2" t="n">
         <v>44428</v>
@@ -9236,7 +9578,11 @@
       <c r="K143" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M143" t="inlineStr">
         <is>
           <t>Ориентированно-стружечная плита</t>
@@ -9282,8 +9628,10 @@
           <t>ФГУП ГЦСС 137/21</t>
         </is>
       </c>
-      <c r="H144" t="n">
-        <v>1145</v>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>1145</t>
+        </is>
       </c>
       <c r="I144" s="2" t="n">
         <v>44561</v>
@@ -9294,7 +9642,11 @@
       <c r="K144" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M144" t="inlineStr">
         <is>
           <t>Услуги специальной связи по приему, обработке, хранению, перевозке, доставке и вручению отправлений</t>
@@ -9354,7 +9706,11 @@
       <c r="K145" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M145" t="inlineStr">
         <is>
           <t>Услуги по подключению к системе элеткронного документооборота, с использованием сертифицированных средств криптографической защиты информации (в рамках ИКТ)</t>
@@ -9400,8 +9756,10 @@
           <t>ООО "ЭкоПром" 156/21</t>
         </is>
       </c>
-      <c r="H146" t="n">
-        <v>156</v>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
       </c>
       <c r="I146" s="2" t="n">
         <v>44428</v>
@@ -9412,7 +9770,11 @@
       <c r="K146" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M146" t="inlineStr">
         <is>
           <t>Утилизация автомобильных шин</t>
@@ -9472,7 +9834,11 @@
       <c r="K147" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M147" t="inlineStr">
         <is>
           <t>Лакокрасочные материалы</t>
@@ -9532,7 +9898,11 @@
       <c r="K148" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M148" t="inlineStr">
         <is>
           <t>Оказание транспортно-экспедиционных услуг</t>
@@ -9592,7 +9962,11 @@
       <c r="K149" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M149" t="inlineStr">
         <is>
           <t>Трос стальной</t>
@@ -10420,7 +10794,11 @@
       <c r="K162" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M162" t="inlineStr">
         <is>
           <t>Услуги обязательного страхования гражданской ответственности владельца опасного объекта</t>
@@ -10466,8 +10844,10 @@
           <t>ФГУП "НПП "ГАММА" 33/21</t>
         </is>
       </c>
-      <c r="H163" t="n">
-        <v>33</v>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
       </c>
       <c r="I163" s="2" t="n">
         <v>44208</v>
@@ -10478,7 +10858,11 @@
       <c r="K163" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M163" t="inlineStr">
         <is>
           <t>Работы по специальной проверке и специальным исследованиям технических средств (в рамках ИКТ)</t>
@@ -10511,12 +10895,24 @@
       <c r="D164" t="n">
         <v>0</v>
       </c>
-      <c r="E164" t="inlineStr"/>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="F164" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="G164" t="inlineStr"/>
-      <c r="H164" t="inlineStr"/>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I164" s="2" t="n">
         <v>25569</v>
       </c>
@@ -10526,8 +10922,16 @@
       <c r="K164" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="N164" t="inlineStr">
         <is>
           <t>0</t>
@@ -10555,12 +10959,24 @@
       <c r="D165" t="n">
         <v>0</v>
       </c>
-      <c r="E165" t="inlineStr"/>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="F165" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="G165" t="inlineStr"/>
-      <c r="H165" t="inlineStr"/>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I165" s="2" t="n">
         <v>25569</v>
       </c>
@@ -10570,8 +10986,16 @@
       <c r="K165" s="2" t="n">
         <v>25569</v>
       </c>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="N165" t="inlineStr">
         <is>
           <t>0</t>
